--- a/Examples/Ratios & Metrics.xlsx
+++ b/Examples/Ratios & Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\others\data\xlquote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A532C9-E8FF-4425-A1AE-9EEBB1B32A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19524E0D-1B9C-40B8-80A7-CDE6885A4DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios &amp; Metrics" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Market Cap</t>
   </si>
@@ -54,21 +76,6 @@
     <t>Debt to Assets</t>
   </si>
   <si>
-    <t>marketCapTTM</t>
-  </si>
-  <si>
-    <t>enterpriseValueTTM</t>
-  </si>
-  <si>
-    <t>enterpriseValueOverEBITDATTM</t>
-  </si>
-  <si>
-    <t>earningsYieldTTM</t>
-  </si>
-  <si>
-    <t>roicTTM</t>
-  </si>
-  <si>
     <t>Cash Ratio</t>
   </si>
   <si>
@@ -153,100 +160,118 @@
     <t>Payout Ratio</t>
   </si>
   <si>
-    <t>cashRatioTTM</t>
-  </si>
-  <si>
-    <t>quickRatioTTM</t>
-  </si>
-  <si>
-    <t>currentRatioTTM</t>
-  </si>
-  <si>
-    <t>daysOfSalesOutstandingTTM</t>
-  </si>
-  <si>
-    <t>daysOfInventoryOutstandingTTM</t>
-  </si>
-  <si>
-    <t>daysOfPayablesOutstandingTTM</t>
-  </si>
-  <si>
-    <t>cashConversionCycleTTM</t>
-  </si>
-  <si>
-    <t>grossProfitMarginTTM</t>
-  </si>
-  <si>
-    <t>operatingProfitMarginTTM</t>
-  </si>
-  <si>
-    <t>pretaxProfitMarginTTM</t>
-  </si>
-  <si>
-    <t>netProfitMarginTTM</t>
-  </si>
-  <si>
-    <t>effectiveTaxRateTTM</t>
-  </si>
-  <si>
-    <t>returnOnAssetsTTM</t>
-  </si>
-  <si>
-    <t>returnOnEquityTTM</t>
-  </si>
-  <si>
-    <t>returnOnCapitalEmployedTTM</t>
-  </si>
-  <si>
-    <t>debtRatioTTM</t>
-  </si>
-  <si>
-    <t>debtEquityRatioTTM</t>
-  </si>
-  <si>
-    <t>longTermDebtToCapitalizationTTM</t>
-  </si>
-  <si>
-    <t>totalDebtToCapitalizationTTM</t>
-  </si>
-  <si>
-    <t>interestCoverageTTM</t>
-  </si>
-  <si>
-    <t>cashFlowToDebtRatioTTM</t>
-  </si>
-  <si>
-    <t>assetTurnoverTTM</t>
-  </si>
-  <si>
-    <t>priceToBookRatioTTM</t>
-  </si>
-  <si>
-    <t>priceToSalesRatioTTM</t>
-  </si>
-  <si>
-    <t>priceEarningsRatioTTM</t>
-  </si>
-  <si>
-    <t>pegRatioTTM</t>
-  </si>
-  <si>
-    <t>priceCashFlowRatioTTM</t>
-  </si>
-  <si>
-    <t>priceToFreeCashFlowsRatioTTM</t>
-  </si>
-  <si>
-    <t>dividendYieldTTM</t>
-  </si>
-  <si>
-    <t>payoutRatioTTM</t>
-  </si>
-  <si>
     <t>Return on Invested Capital</t>
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>marketCap</t>
+  </si>
+  <si>
+    <t>enterpriseValue</t>
+  </si>
+  <si>
+    <t>priceToSalesRatio</t>
+  </si>
+  <si>
+    <t>priceToBookRatio</t>
+  </si>
+  <si>
+    <t>priceEarningsRatio</t>
+  </si>
+  <si>
+    <t>priceCashFlowRatio</t>
+  </si>
+  <si>
+    <t>priceToFreeCashFlowsRatio</t>
+  </si>
+  <si>
+    <t>pegRatio</t>
+  </si>
+  <si>
+    <t>enterpriseValueOverEBITDA</t>
+  </si>
+  <si>
+    <t>earningsYield</t>
+  </si>
+  <si>
+    <t>dividendYield</t>
+  </si>
+  <si>
+    <t>payoutRatio</t>
+  </si>
+  <si>
+    <t>cashRatio</t>
+  </si>
+  <si>
+    <t>quickRatio</t>
+  </si>
+  <si>
+    <t>currentRatio</t>
+  </si>
+  <si>
+    <t>daysOfSalesOutstanding</t>
+  </si>
+  <si>
+    <t>daysOfInventoryOutstanding</t>
+  </si>
+  <si>
+    <t>daysOfPayablesOutstanding</t>
+  </si>
+  <si>
+    <t>cashConversionCycle</t>
+  </si>
+  <si>
+    <t>grossProfitMargin</t>
+  </si>
+  <si>
+    <t>operatingProfitMargin</t>
+  </si>
+  <si>
+    <t>pretaxProfitMargin</t>
+  </si>
+  <si>
+    <t>netProfitMargin</t>
+  </si>
+  <si>
+    <t>effectiveTaxRate</t>
+  </si>
+  <si>
+    <t>returnOnAssets</t>
+  </si>
+  <si>
+    <t>returnOnEquity</t>
+  </si>
+  <si>
+    <t>returnOnCapitalEmployed</t>
+  </si>
+  <si>
+    <t>roic</t>
+  </si>
+  <si>
+    <t>debtRatio</t>
+  </si>
+  <si>
+    <t>debtEquityRatio</t>
+  </si>
+  <si>
+    <t>longTermDebtToCapitalization</t>
+  </si>
+  <si>
+    <t>totalDebtToCapitalization</t>
+  </si>
+  <si>
+    <t>interestCoverage</t>
+  </si>
+  <si>
+    <t>cashFlowToDebtRatio</t>
+  </si>
+  <si>
+    <t>assetTurnover</t>
+  </si>
+  <si>
+    <t>TTM</t>
   </si>
 </sst>
 </file>
@@ -296,11 +321,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -641,446 +669,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <f>_xll.xlquoteMetrics(Symbol,C3)/1000000</f>
-        <v>2068546.1059900001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <f>_xll.xlquoteMetrics(Symbol,C4)/1000000</f>
-        <v>2137970.1059900001</v>
+        <f>_xll.xlquoteMetrics(Symbol,C4,$B$3)/1000000</f>
+        <v>2520772.9021999999</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C5)</f>
-        <v>7.5352753255377696</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <f>_xll.xlquoteMetrics(Symbol,C5,$B$3)/1000000</f>
+        <v>2612961.9021999999</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C6)</f>
-        <v>31.6586740842376</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" cm="1">
+        <f t="array" ref="B6">_xll.xlquoteRatios(Symbol,C6,$B$3)</f>
+        <v>6.44195592916381</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C7)</f>
-        <v>36.030483809548699</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" cm="1">
+        <f t="array" ref="B7">_xll.xlquoteRatios(Symbol,C7,$B$3)</f>
+        <v>42.964332777462303</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C8)</f>
-        <v>67.785624131275398</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" cm="1">
+        <f t="array" ref="B8">_xll.xlquoteRatios(Symbol,C8,$B$3)</f>
+        <v>25.057244935914799</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C9)</f>
-        <v>72.813055932626995</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" cm="1">
+        <f t="array" ref="B9">_xll.xlquoteRatios(Symbol,C9,$B$3)</f>
+        <v>21.116934672317001</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C10)</f>
-        <v>55.558983621333198</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" cm="1">
+        <f t="array" ref="B10">_xll.xlquoteRatios(Symbol,C10,$B$3)</f>
+        <v>23.2058196045807</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <f>_xll.xlquoteMetrics(Symbol,C11)</f>
-        <v>26.6380526537503</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" cm="1">
+        <f t="array" ref="B11">_xll.xlquoteRatios(Symbol,C11,$B$3)</f>
+        <v>0.35807718851694897</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3">
-        <f>_xll.xlquoteMetrics(Symbol,C12)</f>
-        <v>2.7754276220264999E-2</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" cm="1">
+        <f t="array" ref="B12">_xll.xlquoteMetrics(Symbol,C12,$B$3)</f>
+        <v>19.840558719190899</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C13)</f>
-        <v>1.1932723764784801E-2</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" cm="1">
+        <f t="array" ref="B13">_xll.xlquoteMetrics(Symbol,C13,$B$3)</f>
+        <v>3.9524782225739401E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C14)</f>
-        <v>0.42994181041089702</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" cm="1">
+        <f t="array" ref="B14">_xll.xlquoteRatios(Symbol,C14,$B$3)</f>
+        <v>5.8267512624627701E-3</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C15)</f>
-        <v>0.36071049035980002</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" cm="1">
+        <f t="array" ref="B15">_xll.xlquoteRatios(Symbol,C15,$B$3)</f>
+        <v>0.14600233356418099</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C16)</f>
-        <v>1.01585509336572</v>
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" cm="1">
+        <f t="array" ref="B16">_xll.xlquoteRatios(Symbol,C16,$B$3)</f>
+        <v>0.211760720088086</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C17)</f>
-        <v>1.3636044481554599</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" cm="1">
+        <f t="array" ref="B17">_xll.xlquoteRatios(Symbol,C17,$B$3)</f>
+        <v>0.696626704549829</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C18)</f>
-        <v>21.433437152796799</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" cm="1">
+        <f t="array" ref="B18">_xll.xlquoteRatios(Symbol,C18,$B$3)</f>
+        <v>0.86462929169265401</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C19)</f>
-        <v>8.7418833562358795</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" cm="1">
+        <f t="array" ref="B19">_xll.xlquoteRatios(Symbol,C19,$B$3)</f>
+        <v>39.784926536994703</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C20)</f>
-        <v>91.048189715674198</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" cm="1">
+        <f t="array" ref="B20">_xll.xlquoteRatios(Symbol,C20,$B$3)</f>
+        <v>9.0269299575293296</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C21)</f>
-        <v>-67.459219680517904</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" cm="1">
+        <f t="array" ref="B21">_xll.xlquoteRatios(Symbol,C21,$B$3)</f>
+        <v>80.321898571109898</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C22)</f>
-        <v>0.38233247727810898</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" cm="1">
+        <f t="array" ref="B22">_xll.xlquoteRatios(Symbol,C22,$B$3)</f>
+        <v>-38.311153688423097</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C23)</f>
-        <v>0.24147314354406901</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" cm="1">
+        <f t="array" ref="B23">_xll.xlquoteRatios(Symbol,C23,$B$3)</f>
+        <v>0.433142730336325</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C24)</f>
-        <v>0.24439830246070299</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" cm="1">
+        <f t="array" ref="B24">_xll.xlquoteRatios(Symbol,C24,$B$3)</f>
+        <v>0.30533206723400302</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C25)</f>
-        <v>0.209136112780722</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" cm="1">
+        <f t="array" ref="B25">_xll.xlquoteRatios(Symbol,C25,$B$3)</f>
+        <v>0.30369353515231901</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C26)</f>
-        <v>0.144281647314841</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" cm="1">
+        <f t="array" ref="B26">_xll.xlquoteRatios(Symbol,C26,$B$3)</f>
+        <v>0.25708955416445201</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C27)</f>
-        <v>0.177255718025984</v>
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" cm="1">
+        <f t="array" ref="B27">_xll.xlquoteRatios(Symbol,C27,$B$3)</f>
+        <v>0.15345727054905101</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C28)</f>
-        <v>0.87866358530127497</v>
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" cm="1">
+        <f t="array" ref="B28">_xll.xlquoteRatios(Symbol,C28,$B$3)</f>
+        <v>0.29625433752887997</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3">
-        <f>_xll.xlquoteRatios(Symbol,C29)</f>
-        <v>0.30705825278266002</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" cm="1">
+        <f t="array" ref="B29">_xll.xlquoteRatios(Symbol,C29,$B$3)</f>
+        <v>1.5297088988515599</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="3">
-        <f>_xll.xlquoteMetrics(Symbol,C30)</f>
-        <v>0.30705825278266002</v>
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" cm="1">
+        <f t="array" ref="B30">_xll.xlquoteRatios(Symbol,C30,$B$3)</f>
+        <v>0.57319944195779804</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C31)</f>
-        <v>0.79826668477992402</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" cm="1">
+        <f t="array" ref="B31">_xll.xlquoteMetrics(Symbol,C31,$B$3)</f>
+        <v>0.57319944195779804</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C32)</f>
-        <v>3.9570394404567</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" cm="1">
+        <f t="array" ref="B32">_xll.xlquoteRatios(Symbol,C32,$B$3)</f>
+        <v>0.82722139461031396</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C33)</f>
-        <v>0.60160603880345798</v>
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" cm="1">
+        <f t="array" ref="B33">_xll.xlquoteRatios(Symbol,C33,$B$3)</f>
+        <v>4.7877536269296304</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C34)</f>
-        <v>0.62183482946422897</v>
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" cm="1">
+        <f t="array" ref="B34">_xll.xlquoteRatios(Symbol,C34,$B$3)</f>
+        <v>0.61973600685832497</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C35)</f>
-        <v>29.9647163912461</v>
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" cm="1">
+        <f t="array" ref="B35">_xll.xlquoteRatios(Symbol,C35,$B$3)</f>
+        <v>0.67318530017210498</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C36)</f>
-        <v>0.28402829486224901</v>
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" cm="1">
+        <f t="array" ref="B36">_xll.xlquoteRatios(Symbol,C36,$B$3)</f>
+        <v>42.625720461095099</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1">
-        <f>_xll.xlquoteRatios(Symbol,C37)</f>
-        <v>0.84756150274168895</v>
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" cm="1">
+        <f t="array" ref="B37">_xll.xlquoteRatios(Symbol,C37,$B$3)</f>
+        <v>0.98774343935634301</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" cm="1">
+        <f t="array" ref="B38">_xll.xlquoteRatios(Symbol,C38,$B$3)</f>
+        <v>1.15233906912988</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B30" formula="1"/>
+    <ignoredError sqref="B31" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>